--- a/init-data/hzero-file/hzero_file/hzero-file.xlsx
+++ b/init-data/hzero-file/hzero_file/hzero-file.xlsx
@@ -1,15 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="23628"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Andy\Desktop\data\hzero-file\hzero_file\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\HZERO-OPEN-PROJECTS\HZERO-OPEN-HOSP\hzero-resource\init-data\hzero-file\hzero_file\"/>
     </mc:Choice>
   </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{AAC56CEC-37DD-488D-977E-A71C686CD43A}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="20490" windowHeight="7710" tabRatio="597" activeTab="2"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" tabRatio="597" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="README" sheetId="1" r:id="rId1"/>
@@ -27,7 +28,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="124" uniqueCount="101">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="134" uniqueCount="100">
   <si>
     <r>
       <rPr>
@@ -1996,7 +1997,7 @@
     <t>公式=外键引用</t>
   </si>
   <si>
-    <t>2020-07-17</t>
+    <t>2020-09-11</t>
   </si>
   <si>
     <t>hzero</t>
@@ -2056,28 +2057,25 @@
     <t>*</t>
   </si>
   <si>
+    <t>1</t>
+  </si>
+  <si>
+    <t>http://hzerodevoss.saas.hand-china.com</t>
+  </si>
+  <si>
+    <t>******</t>
+  </si>
+  <si>
+    <t>hz</t>
+  </si>
+  <si>
+    <t>0</t>
+  </si>
+  <si>
+    <t>none</t>
+  </si>
+  <si>
     <t>MINIO</t>
-  </si>
-  <si>
-    <t>3</t>
-  </si>
-  <si>
-    <t>http://hzerodevoss.saas.hand-china.com</t>
-  </si>
-  <si>
-    <t>******</t>
-  </si>
-  <si>
-    <t>hz</t>
-  </si>
-  <si>
-    <t>0</t>
-  </si>
-  <si>
-    <t>1</t>
-  </si>
-  <si>
-    <t>none</t>
   </si>
   <si>
     <t>文件容量配置表</t>
@@ -2152,7 +2150,7 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <fonts count="43">
     <font>
       <sz val="12"/>
@@ -2655,7 +2653,7 @@
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
-    <cellStyle name="常规 2" xfId="1"/>
+    <cellStyle name="常规 2" xfId="1" xr:uid="{00000000-0005-0000-0000-000001000000}"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleMedium7"/>
@@ -2995,7 +2993,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:H27"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
@@ -3236,12 +3234,19 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:S8"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
+  <dimension ref="A1:S9"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="J15" sqref="J15"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="17.25"/>
+  <cols>
+    <col min="9" max="9" width="39" customWidth="1"/>
+    <col min="10" max="10" width="17.33203125" customWidth="1"/>
+    <col min="11" max="11" width="19.44140625" customWidth="1"/>
+  </cols>
   <sheetData>
     <row r="1" spans="1:19">
       <c r="A1" s="27" t="s">
@@ -3331,35 +3336,67 @@
       <c r="E8" t="s">
         <v>69</v>
       </c>
-      <c r="F8" t="s">
+      <c r="G8" t="s">
         <v>70</v>
       </c>
-      <c r="G8" t="s">
+      <c r="I8" t="s">
         <v>71</v>
       </c>
-      <c r="I8" t="s">
+      <c r="J8" t="s">
         <v>72</v>
       </c>
-      <c r="J8" t="s">
+      <c r="K8" t="s">
+        <v>72</v>
+      </c>
+      <c r="N8" t="s">
         <v>73</v>
       </c>
-      <c r="K8" t="s">
+      <c r="O8" t="s">
+        <v>74</v>
+      </c>
+      <c r="P8" t="s">
+        <v>70</v>
+      </c>
+      <c r="Q8" t="s">
+        <v>75</v>
+      </c>
+      <c r="S8" t="s">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="9" spans="1:19">
+      <c r="E9" t="s">
+        <v>69</v>
+      </c>
+      <c r="F9" t="s">
+        <v>76</v>
+      </c>
+      <c r="G9" t="s">
+        <v>70</v>
+      </c>
+      <c r="I9" t="s">
+        <v>71</v>
+      </c>
+      <c r="J9" t="s">
+        <v>72</v>
+      </c>
+      <c r="K9" t="s">
+        <v>72</v>
+      </c>
+      <c r="N9" t="s">
         <v>73</v>
       </c>
-      <c r="N8" t="s">
+      <c r="O9" t="s">
         <v>74</v>
       </c>
-      <c r="O8" t="s">
+      <c r="P9" t="s">
+        <v>70</v>
+      </c>
+      <c r="Q9" t="s">
         <v>75</v>
       </c>
-      <c r="P8" t="s">
-        <v>76</v>
-      </c>
-      <c r="Q8" t="s">
-        <v>77</v>
-      </c>
-      <c r="S8" t="s">
-        <v>76</v>
+      <c r="S9" t="s">
+        <v>70</v>
       </c>
     </row>
   </sheetData>
@@ -3369,11 +3406,11 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
   <dimension ref="A1:L11"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A12" sqref="A12:XFD12"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="H16" sqref="H16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="17.25"/>
@@ -3411,28 +3448,28 @@
         <v>51</v>
       </c>
       <c r="C7" t="s">
+        <v>77</v>
+      </c>
+      <c r="D7" s="44" t="s">
         <v>78</v>
       </c>
-      <c r="D7" s="44" t="s">
+      <c r="E7" s="45" t="s">
         <v>79</v>
       </c>
-      <c r="E7" s="45" t="s">
+      <c r="F7" s="46" t="s">
         <v>80</v>
       </c>
-      <c r="F7" s="46" t="s">
+      <c r="G7" t="s">
         <v>81</v>
       </c>
-      <c r="G7" t="s">
+      <c r="H7" t="s">
         <v>82</v>
       </c>
-      <c r="H7" t="s">
+      <c r="I7" t="s">
         <v>83</v>
       </c>
-      <c r="I7" t="s">
+      <c r="J7" t="s">
         <v>84</v>
-      </c>
-      <c r="J7" t="s">
-        <v>85</v>
       </c>
     </row>
     <row r="8" spans="1:12">
@@ -3440,19 +3477,19 @@
         <v>69</v>
       </c>
       <c r="F8" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="G8" t="s">
+        <v>85</v>
+      </c>
+      <c r="H8" t="s">
         <v>86</v>
       </c>
-      <c r="H8" t="s">
+      <c r="I8" t="s">
+        <v>86</v>
+      </c>
+      <c r="J8" t="s">
         <v>87</v>
-      </c>
-      <c r="I8" t="s">
-        <v>87</v>
-      </c>
-      <c r="J8" t="s">
-        <v>88</v>
       </c>
     </row>
     <row r="10" spans="1:12">
@@ -3463,34 +3500,34 @@
         <v>51</v>
       </c>
       <c r="C10" t="s">
+        <v>88</v>
+      </c>
+      <c r="D10" s="47" t="s">
         <v>89</v>
       </c>
-      <c r="D10" s="47" t="s">
+      <c r="E10" s="48" t="s">
         <v>90</v>
       </c>
-      <c r="E10" s="48" t="s">
+      <c r="F10" s="49" t="s">
+        <v>80</v>
+      </c>
+      <c r="G10" s="50" t="s">
         <v>91</v>
       </c>
-      <c r="F10" s="49" t="s">
-        <v>81</v>
-      </c>
-      <c r="G10" s="50" t="s">
+      <c r="H10" s="51" t="s">
         <v>92</v>
       </c>
-      <c r="H10" s="51" t="s">
+      <c r="I10" t="s">
         <v>93</v>
       </c>
-      <c r="I10" t="s">
+      <c r="J10" t="s">
+        <v>83</v>
+      </c>
+      <c r="K10" t="s">
+        <v>84</v>
+      </c>
+      <c r="L10" t="s">
         <v>94</v>
-      </c>
-      <c r="J10" t="s">
-        <v>84</v>
-      </c>
-      <c r="K10" t="s">
-        <v>85</v>
-      </c>
-      <c r="L10" t="s">
-        <v>95</v>
       </c>
     </row>
     <row r="11" spans="1:12">
@@ -3498,30 +3535,30 @@
         <v>69</v>
       </c>
       <c r="F11" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="G11" t="s">
+        <v>95</v>
+      </c>
+      <c r="H11" t="s">
         <v>96</v>
       </c>
-      <c r="H11" t="s">
+      <c r="I11" t="s">
         <v>97</v>
       </c>
-      <c r="I11" t="s">
+      <c r="J11" t="s">
+        <v>86</v>
+      </c>
+      <c r="K11" t="s">
         <v>98</v>
       </c>
-      <c r="J11" t="s">
-        <v>87</v>
-      </c>
-      <c r="K11" t="s">
+      <c r="L11" t="s">
         <v>99</v>
-      </c>
-      <c r="L11" t="s">
-        <v>100</v>
       </c>
     </row>
   </sheetData>
   <phoneticPr fontId="17" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="landscape" r:id="rId1"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>